--- a/indicadores/tablas/130305.xlsx
+++ b/indicadores/tablas/130305.xlsx
@@ -438,7 +438,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -572,7 +572,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/130305.xlsx
+++ b/indicadores/tablas/130305.xlsx
@@ -438,7 +438,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -572,7 +572,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/130305.xlsx
+++ b/indicadores/tablas/130305.xlsx
@@ -1,142 +1,136 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Metadata" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t xml:space="preserve">Fecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>nomindicador</t>
-  </si>
-  <si>
-    <t>Porcentaje de personas de 15 a 24 años que no sabe leer y escribir</t>
-  </si>
-  <si>
-    <t>derecho</t>
-  </si>
-  <si>
-    <t>Educación</t>
-  </si>
-  <si>
-    <t>conindicador</t>
-  </si>
-  <si>
-    <t>Analfabetismo (15 a 24 años)</t>
-  </si>
-  <si>
-    <t>tipoind</t>
-  </si>
-  <si>
-    <t>Resultados</t>
-  </si>
-  <si>
-    <t>definicion</t>
-  </si>
-  <si>
-    <t>El indicador mide el porcentaje de analfabetismo en personas de 15 a 24 años. Dado que la alfabetización es un aspecto intrínseco del derecho a la educación, el analfabetismo supone claramente una realización insuficiente del derecho.</t>
-  </si>
-  <si>
-    <t>calculo</t>
-  </si>
-  <si>
-    <t>Para cada año calcular: (Población de 15 a 24 años que no saben leer y escribir / Cantidad de población de 15 a 24 años)*100</t>
-  </si>
-  <si>
-    <t>observaciones</t>
-  </si>
-  <si>
-    <t>Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. 
+    <t xml:space="preserve">nomindicador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje de personas de 15 a 24 años que no sabe leer y escribir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derecho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Educación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conindicador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analfabetismo (15 a 24 años)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tipoind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">definicion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El indicador mide el porcentaje de analfabetismo en personas de 15 a 24 años. Dado que la alfabetización es un aspecto intrínseco del derecho a la educación, el analfabetismo supone claramente una realización insuficiente del derecho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para cada año calcular: (Población de 15 a 24 años que no saben leer y escribir / Cantidad de población de 15 a 24 años)*100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. 
 En julio de 2021 el INE retomó la realización de encuestas presenciales, pero introdujo un cambio metodológico, ya que la ECH pasa a ser una encuesta de panel rotativo con periodicidad mensual compuesta por seis paneles o grupos de rotación, cada uno de los cuales es una muestra representativa de la población. Con esta nueva metodología, cada hogar seleccionado participa durante seis meses de la ECH.  
 Para 2020, este indicador se construye con la encuesta presencial hasta marzo de 2020 y, posteriormente, con la encuesta telefónica panel. Para 2021, este indicador se calcula a partir de la encuesta telefónica del primer semestre de 2021 y el formulario telefónico de modalidad panel del segundo semestre de 2021.</t>
   </si>
   <si>
-    <t>cita</t>
-  </si>
-  <si>
-    <t>UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE (Hasta 2019) / A partir de 2020 con base en ECH - INE</t>
-  </si>
-  <si>
-    <t>Mirador DESCA - UMAD/FCS – INDDHH</t>
+    <t xml:space="preserve">cita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE (Hasta 2019) / A partir de 2020 con base en ECH - INE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirador DESCA - UMAD/FCS – INDDHH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -172,15 +166,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -462,16 +447,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,141 +462,141 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>0.54</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>0.98</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>0.85</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>1.2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>1.3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -621,7 +604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -629,7 +612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -637,7 +620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -645,7 +628,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -653,7 +636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -661,7 +644,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -669,7 +652,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -677,7 +660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -685,7 +668,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -695,6 +678,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/indicadores/tablas/130305.xlsx
+++ b/indicadores/tablas/130305.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -21,6 +21,15 @@
     <t xml:space="preserve">Valor</t>
   </si>
   <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021</t>
   </si>
   <si>
@@ -66,9 +75,6 @@
     <t xml:space="preserve">2006</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -111,15 +117,20 @@
     <t xml:space="preserve">observaciones</t>
   </si>
   <si>
-    <t xml:space="preserve">Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. 
-En julio de 2021 el INE retomó la realización de encuestas presenciales, pero introdujo un cambio metodológico, ya que la ECH pasa a ser una encuesta de panel rotativo con periodicidad mensual compuesta por seis paneles o grupos de rotación, cada uno de los cuales es una muestra representativa de la población. Con esta nueva metodología, cada hogar seleccionado participa durante seis meses de la ECH.  
-Para 2020, este indicador se construye con la encuesta presencial hasta marzo de 2020 y, posteriormente, con la encuesta telefónica panel. Para 2021, este indicador se calcula a partir de la encuesta telefónica del primer semestre de 2021 y el formulario telefónico de modalidad panel del segundo semestre de 2021.</t>
+    <t xml:space="preserve">Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. En julio de 2021 el INE retomó la realización de encuestas presenciales, pero introdujo un cambio metodológico, ya que la ECH pasa a ser una encuesta de panel rotativo con periodicidad mensual compuesta por seis paneles o grupos de rotación, cada uno de los cuales es una muestra representativa de la población. Con esta nueva metodología, cada hogar seleccionado participa durante seis meses de la ECH. Durante el año 2020 y hasta julio del año 2021 se suspende el relevamiento de la información necesaria para construir indicadores relativos al nivel y la trayectoria educativa. A partir de esta fecha, las preguntas se relevan en el formulario presencial. Un conjunto importante de indicadores educativos tienen un efecto estacional, por lo que no se recomienda comparar los resultados del segundo semestre del 2021 con la información anual. Las estimaciones desde 2022 se calculan a partir de la muestra de implantación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actualizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio 2025</t>
   </si>
   <si>
     <t xml:space="preserve">cita</t>
   </si>
   <si>
-    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE (Hasta 2019) / A partir de 2020 con base en ECH - INE</t>
+    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE (Hasta 2019) / A partir de 2020 con base en ECH - INE
+</t>
   </si>
   <si>
     <t xml:space="preserve">Mirador DESCA - UMAD/FCS – INDDHH</t>
@@ -467,7 +478,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.54</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1.1</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +502,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>1.1</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="6">
@@ -499,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.85</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="7">
@@ -515,7 +526,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="9">
@@ -523,7 +534,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>1.1</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="10">
@@ -531,7 +542,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="11">
@@ -539,7 +550,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +558,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="13">
@@ -579,6 +590,30 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
         <v>1.3</v>
       </c>
     </row>
@@ -598,82 +633,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
